--- a/Descriptive and Predictive Analytics/DemandData.xlsx
+++ b/Descriptive and Predictive Analytics/DemandData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Teaching\MOOC\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japjot/Desktop/cs/coursera/op-analytics/Descriptive and Predictive Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,12 +17,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Period</t>
   </si>
@@ -35,12 +43,51 @@
   <si>
     <t>std. dev</t>
   </si>
+  <si>
+    <t>MA(13)</t>
+  </si>
+  <si>
+    <t>e_t</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>MA(2)</t>
+  </si>
+  <si>
+    <t>e_t/D_t</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>A/F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,10 +174,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8662370439446698E-2"/>
-          <c:y val="2.7137223293261268E-2"/>
-          <c:w val="0.93294011883533579"/>
-          <c:h val="0.91163052174517201"/>
+          <c:x val="0.0486623704394467"/>
+          <c:y val="0.0271372232932613"/>
+          <c:w val="0.932940118835336"/>
+          <c:h val="0.911630521745172"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -174,304 +228,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,15 +540,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256752224"/>
-        <c:axId val="256752616"/>
+        <c:axId val="-2063341008"/>
+        <c:axId val="-2062811328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256752224"/>
+        <c:axId val="-2063341008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -533,17 +587,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256752616"/>
+        <c:crossAx val="-2062811328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256752616"/>
+        <c:axId val="-2062811328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -599,7 +653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256752224"/>
+        <c:crossAx val="-2063341008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1200,9 +1254,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1235,9 +1289,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1441,18 +1495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,10 +1515,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1471,7 +1526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1479,7 +1534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1487,7 +1542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1495,7 +1550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1503,7 +1558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1511,7 +1566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1519,7 +1574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1527,7 +1582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1535,7 +1590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1543,7 +1598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1551,7 +1606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1559,7 +1614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1567,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1575,7 +1630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1583,7 +1638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1591,7 +1646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1599,7 +1654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1607,7 +1662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1615,7 +1670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1630,7 +1685,7 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1645,7 +1700,7 @@
         <v>13.730225450046007</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1653,7 +1708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1661,7 +1716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1669,7 +1724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1677,7 +1732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1685,7 +1740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1693,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1701,7 +1756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1709,7 +1764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1717,7 +1772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1725,7 +1780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1733,7 +1788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1741,7 +1796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1749,7 +1804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1757,7 +1812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1765,7 +1820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1773,7 +1828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1781,7 +1836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1789,7 +1844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1797,7 +1852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1805,7 +1860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1813,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1821,7 +1876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1829,7 +1884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1837,7 +1892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1845,7 +1900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1853,7 +1908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -1861,7 +1916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1869,7 +1924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -1877,7 +1932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -1885,7 +1940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1893,7 +1948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -1901,7 +1956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1909,7 +1964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1917,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -1925,7 +1980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -1933,7 +1988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -1941,7 +1996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1949,7 +2004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -1957,7 +2012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -1965,7 +2020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -1973,7 +2028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -1981,7 +2036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -1989,7 +2044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -1997,7 +2052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2005,7 +2060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2013,7 +2068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2021,7 +2076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2037,7 +2092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2045,7 +2100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2053,7 +2108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2061,7 +2116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2069,7 +2124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2077,7 +2132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2085,7 +2140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2093,7 +2148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2101,180 +2156,665 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="4">
+        <v>20</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f>AVERAGE(B70:B82)</f>
+        <v>55.615384615384613</v>
+      </c>
+      <c r="E83">
+        <f>ABS(B83-D83)</f>
+        <v>3.6153846153846132</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="4">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="M83" s="4">
+        <v>546</v>
+      </c>
+      <c r="N83" s="4">
+        <v>914</v>
+      </c>
+      <c r="O83">
+        <f>M83/N83</f>
+        <v>0.59737417943107218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" ref="D84:D102" si="0">AVERAGE(B71:B83)</f>
+        <v>55.769230769230766</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E102" si="1">ABS(B84-D84)</f>
+        <v>5.7692307692307665</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="4">
+        <v>30</v>
+      </c>
+      <c r="I84">
+        <f>AVERAGE(H82:H83)</f>
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <f>H84-I84</f>
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <f>J84/H84</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M84" s="4">
+        <v>639</v>
+      </c>
+      <c r="N84" s="4">
+        <v>698</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ref="O84:O102" si="2">M84/N84</f>
+        <v>0.91547277936962745</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="0"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>22.384615384615387</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="4">
+        <v>40</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85:I86" si="3">AVERAGE(H83:H84)</f>
+        <v>30</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85:J86" si="4">H85-I85</f>
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85:K86" si="5">J85/H85</f>
+        <v>0.25</v>
+      </c>
+      <c r="M85" s="4">
+        <v>534</v>
+      </c>
+      <c r="N85" s="4">
+        <v>518</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="2"/>
+        <v>1.0308880308880308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="0"/>
+        <v>53.307692307692307</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0.3076923076923066</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="4">
+        <v>60</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M86" s="4">
+        <v>732</v>
+      </c>
+      <c r="N86" s="4">
+        <v>595</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="2"/>
+        <v>1.2302521008403362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="0"/>
+        <v>53.46153846153846</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.5384615384615401</v>
+      </c>
+      <c r="K87">
+        <f>(1/3)*SUM(K84:K86)</f>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="M87" s="4">
+        <v>699</v>
+      </c>
+      <c r="N87" s="4">
+        <v>909</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="2"/>
+        <v>0.76897689768976896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="0"/>
+        <v>52.92307692307692</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>7.0769230769230802</v>
+      </c>
+      <c r="G88">
+        <f>(4.3*70) + 36</f>
+        <v>337</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1019</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1063</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="2"/>
+        <v>0.95860771401693323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="0"/>
+        <v>51.92307692307692</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>5.0769230769230802</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1174</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1160</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="2"/>
+        <v>1.0120689655172415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="0"/>
+        <v>52.307692307692307</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>4.6923076923076934</v>
+      </c>
+      <c r="G90">
+        <f>0.8+0.5+0.4+0.8+1.7+1.8</f>
+        <v>6</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1092</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1084</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="2"/>
+        <v>1.0073800738007379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="0"/>
+        <v>52.07692307692308</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>10.92307692307692</v>
+      </c>
+      <c r="G91">
+        <f>(770+90)*0.8</f>
+        <v>688</v>
+      </c>
+      <c r="M91" s="4">
+        <v>608</v>
+      </c>
+      <c r="N91" s="4">
+        <v>776</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="2"/>
+        <v>0.78350515463917525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="0"/>
+        <v>53.153846153846153</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>10.846153846153847</v>
+      </c>
+      <c r="M92" s="4">
+        <v>908</v>
+      </c>
+      <c r="N92" s="4">
+        <v>758</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="2"/>
+        <v>1.1978891820580475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="0"/>
+        <v>53.615384615384613</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>8.3846153846153868</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1162</v>
+      </c>
+      <c r="N93" s="4">
+        <v>938</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="2"/>
+        <v>1.2388059701492538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1300</v>
+      </c>
+      <c r="N94" s="4">
+        <v>2108</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="2"/>
+        <v>0.61669829222011385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="0"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>13.384615384615387</v>
+      </c>
+      <c r="M95" s="4">
+        <v>739</v>
+      </c>
+      <c r="N95" s="4">
+        <v>870</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="2"/>
+        <v>0.84942528735632183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="0"/>
+        <v>54.230769230769234</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>21.230769230769234</v>
+      </c>
+      <c r="M96" s="4">
+        <v>941</v>
+      </c>
+      <c r="N96" s="4">
+        <v>1278</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="2"/>
+        <v>0.73630672926447571</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="0"/>
+        <v>52.769230769230766</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>2.7692307692307665</v>
+      </c>
+      <c r="M97" s="4">
+        <v>831</v>
+      </c>
+      <c r="N97" s="4">
+        <v>762</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="2"/>
+        <v>1.0905511811023623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="0"/>
+        <v>52.769230769230766</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>6.2307692307692335</v>
+      </c>
+      <c r="M98" s="4">
+        <v>915</v>
+      </c>
+      <c r="N98" s="4">
+        <v>1270</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="2"/>
+        <v>0.72047244094488194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="0"/>
+        <v>54.769230769230766</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>6.7692307692307665</v>
+      </c>
+      <c r="M99" s="4">
+        <v>682</v>
+      </c>
+      <c r="N99" s="4">
+        <v>524</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="2"/>
+        <v>1.3015267175572518</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="0"/>
+        <v>54.384615384615387</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>7.6153846153846132</v>
+      </c>
+      <c r="M100" s="4">
+        <v>799</v>
+      </c>
+      <c r="N100" s="4">
+        <v>708</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="2"/>
+        <v>1.1285310734463276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1281</v>
+      </c>
+      <c r="N101" s="4">
+        <v>946</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="2"/>
+        <v>1.3541226215644819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>41</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>53.53846153846154</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>12.53846153846154</v>
+      </c>
+      <c r="M102" s="4">
+        <v>640</v>
+      </c>
+      <c r="N102" s="4">
+        <v>806</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="2"/>
+        <v>0.794044665012407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <f>STDEV(O83:O102)</f>
+        <v>0.22941988979250635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <f>(1/20)*SUM(E83:E102)</f>
+        <v>8.4576923076923087</v>
+      </c>
+      <c r="O104">
+        <f>1450*O103</f>
+        <v>332.6588401991342</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2302,7 +2842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2314,7 +2854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
